--- a/CDMv5/event_combined_v5.3.xlsx
+++ b/CDMv5/event_combined_v5.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\omop\OMOP data_model\cdm5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\omop\OMOP data_model\cdm5\v5.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1DFFB3-BCF2-4289-86C8-2747B2E0697D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993F66B-A498-4185-ADDB-1D5510B7859C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="450" windowWidth="24795" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="visit" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CDM5.3'!$A$1:$AF$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CDM5.3'!$A$1:$AF$42</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -79,30 +79,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC56" authorId="0" shapeId="0" xr:uid="{5CC7DF98-5410-40F4-861B-2DD0FE3E83E5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Don Torok:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Convience when using rownum to dedup</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -143,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="284">
   <si>
     <t xml:space="preserve">procedure_occurrence </t>
   </si>
@@ -259,57 +235,24 @@
     <t>route_concept_id</t>
   </si>
   <si>
-    <t>effective_drug_dose</t>
-  </si>
-  <si>
     <t>dose_unit_concept_id</t>
   </si>
   <si>
     <t>lot_number</t>
   </si>
   <si>
-    <t xml:space="preserve"> provider_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> visit_occurrence_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">device_exposure </t>
   </si>
   <si>
-    <t xml:space="preserve"> device_exposure_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> person_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> device_concept_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> device_exposure_start_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> device_exposure_end_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> device_type_concept_id</t>
-  </si>
-  <si>
     <t xml:space="preserve"> unique_device_id</t>
   </si>
   <si>
     <t xml:space="preserve"> quantity</t>
   </si>
   <si>
-    <t xml:space="preserve"> device_source_value</t>
-  </si>
-  <si>
     <t>VARCHAR(100</t>
   </si>
   <si>
-    <t xml:space="preserve"> device_source_concept_id</t>
-  </si>
-  <si>
     <t>Drug Exposure</t>
   </si>
   <si>
@@ -706,72 +649,6 @@
     <t>Added confition_status concept_id and source value, v5.1 additions</t>
   </si>
   <si>
-    <t>source_table</t>
-  </si>
-  <si>
-    <t>varchar(500)</t>
-  </si>
-  <si>
-    <t>source_table_key</t>
-  </si>
-  <si>
-    <t>relevant_condition_concept_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paid_copay                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal(14,3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">paid_coinsurance                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">paid_toward_deductible                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">paid_by_payer                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">paid_by_coordination_benefits          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_out_of_pocket                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_paid                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ingredient_cost                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dispensing_fee                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_wholesale_price                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenue_code_concept_id                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">int           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">payer_plan_period_id                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">revenue_code_source_value              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(50)   </t>
-  </si>
-  <si>
-    <t>VARCHAR(254)</t>
-  </si>
-  <si>
-    <t>VARCHAR(325)</t>
-  </si>
-  <si>
     <t>DATETIME</t>
   </si>
   <si>
@@ -796,21 +673,6 @@
     <t>event_type_concept_id</t>
   </si>
   <si>
-    <t>condition_origin</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>result_datetime</t>
-  </si>
-  <si>
-    <t>order_date</t>
-  </si>
-  <si>
-    <t>specimen_source</t>
-  </si>
-  <si>
     <t>procedure_datetime</t>
   </si>
   <si>
@@ -838,22 +700,7 @@
     <t>measurement_datetime</t>
   </si>
   <si>
-    <t>priority_value</t>
-  </si>
-  <si>
     <t>Added 4 new fields for measurment and corrected column names (like datetime)</t>
-  </si>
-  <si>
-    <t>order_datetime</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>frequency_unit</t>
-  </si>
-  <si>
-    <t>VARCHAR(12)</t>
   </si>
   <si>
     <t>Specimen</t>
@@ -950,24 +797,15 @@
     <t>table7</t>
   </si>
   <si>
-    <t xml:space="preserve"> device_source_vocabulary_id</t>
-  </si>
-  <si>
     <t>condition_source_vocabulary_id</t>
   </si>
   <si>
-    <t>measurement_source_condition_source_vocabulary_idt_id</t>
-  </si>
-  <si>
     <t>observation_source_vocabulary_id</t>
   </si>
   <si>
     <t>event_source_vocabulary_id</t>
   </si>
   <si>
-    <t>rownum</t>
-  </si>
-  <si>
     <t>Incorporate v5.3 fields</t>
   </si>
   <si>
@@ -1098,6 +936,45 @@
   </si>
   <si>
     <t>Added unified visit</t>
+  </si>
+  <si>
+    <t>device_type_concept_id</t>
+  </si>
+  <si>
+    <t>device_source_vocabulary_id</t>
+  </si>
+  <si>
+    <t>device_source_concept_id</t>
+  </si>
+  <si>
+    <t>device_source_value</t>
+  </si>
+  <si>
+    <t>device_exposure_end_date</t>
+  </si>
+  <si>
+    <t>device_exposure_start_date</t>
+  </si>
+  <si>
+    <t>device_concept_id</t>
+  </si>
+  <si>
+    <t>device_exposure_id</t>
+  </si>
+  <si>
+    <t>measurement_source_vocabulary_id</t>
+  </si>
+  <si>
+    <t>Removed columns added for PCORnet</t>
+  </si>
+  <si>
+    <t>NUMERIC(10.2)</t>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+  </si>
+  <si>
+    <t>VARCHAR(3)</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1293,57 +1170,11 @@
       <left style="thin">
         <color theme="4"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF808080"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
       <right style="thin">
         <color theme="4"/>
       </right>
       <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF808080"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1366,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1412,30 +1243,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1782,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1796,68 +1609,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B2" s="10">
         <v>42237</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B3" s="10">
         <v>42241</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B4" s="10">
         <v>42249</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B5" s="10">
         <v>42263</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B6" s="10">
         <v>42613</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
@@ -1865,84 +1678,95 @@
         <v>42613</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B8" s="10">
         <v>42677</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B9" s="10">
         <v>42704</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B10" s="10">
         <v>42774</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B11" s="10">
         <v>42908</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B12" s="10">
         <v>42915</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B13" s="10">
         <v>43200</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B14" s="10">
         <v>43249</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>316</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="10">
+        <v>43699</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1953,41 +1777,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH93"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="R45" sqref="A45:XFD45"/>
+      <selection pane="bottomLeft" activeCell="AJ62" sqref="AJ62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="40" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="40" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="40" customWidth="1"/>
     <col min="10" max="10" width="26.5" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="40" customWidth="1"/>
     <col min="14" max="14" width="25.33203125" customWidth="1"/>
     <col min="15" max="15" width="13.1640625" customWidth="1"/>
     <col min="16" max="16" width="10.1640625" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="40" customWidth="1"/>
     <col min="18" max="18" width="29.1640625" customWidth="1"/>
     <col min="19" max="19" width="13.1640625" customWidth="1"/>
     <col min="20" max="20" width="11.1640625" customWidth="1"/>
-    <col min="21" max="21" width="10.1640625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" style="40" customWidth="1"/>
     <col min="22" max="22" width="27.83203125" customWidth="1"/>
     <col min="23" max="23" width="13.1640625" customWidth="1"/>
     <col min="24" max="24" width="11.1640625" customWidth="1"/>
-    <col min="25" max="25" width="10.1640625" style="49" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" style="40" customWidth="1"/>
     <col min="26" max="26" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.5" customWidth="1"/>
     <col min="28" max="28" width="12" customWidth="1"/>
@@ -2000,7 +1825,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -2012,91 +1837,91 @@
         <v>23</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>123</v>
-      </c>
       <c r="X1" s="20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="AC1" s="20" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="AD1" s="20" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AE1" s="20" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AF1" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AH1" s="22" t="s">
         <v>2</v>
@@ -2104,7 +1929,7 @@
     </row>
     <row r="2" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>1</v>
@@ -2116,7 +1941,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>24</v>
@@ -2128,10 +1953,10 @@
         <v>25</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>2</v>
@@ -2140,10 +1965,10 @@
         <v>17</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>2</v>
@@ -2152,10 +1977,10 @@
         <v>17</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="S2" s="24" t="s">
         <v>2</v>
@@ -2164,10 +1989,10 @@
         <v>17</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="W2" s="24" t="s">
         <v>2</v>
@@ -2176,10 +2001,10 @@
         <v>17</v>
       </c>
       <c r="Y2" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z2" s="23" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="AA2" s="24" t="s">
         <v>2</v>
@@ -2188,7 +2013,7 @@
         <v>17</v>
       </c>
       <c r="AC2" s="25" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="AD2" s="26" t="s">
         <v>2</v>
@@ -2198,7 +2023,7 @@
       </c>
       <c r="AF2" s="26"/>
       <c r="AG2" s="27" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="AH2" s="28" t="s">
         <v>2</v>
@@ -2206,7 +2031,7 @@
     </row>
     <row r="3" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>3</v>
@@ -2218,7 +2043,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>3</v>
@@ -2230,10 +2055,10 @@
         <v>25</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>2</v>
@@ -2242,7 +2067,7 @@
         <v>17</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N3" s="29" t="s">
         <v>3</v>
@@ -2254,7 +2079,7 @@
         <v>17</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>3</v>
@@ -2266,7 +2091,7 @@
         <v>17</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V3" s="29" t="s">
         <v>3</v>
@@ -2278,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z3" s="29" t="s">
         <v>3</v>
@@ -2308,7 +2133,7 @@
     </row>
     <row r="4" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>4</v>
@@ -2320,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>26</v>
@@ -2332,10 +2157,10 @@
         <v>25</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>2</v>
@@ -2344,10 +2169,10 @@
         <v>17</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O4" s="30" t="s">
         <v>2</v>
@@ -2356,10 +2181,10 @@
         <v>17</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="S4" s="30" t="s">
         <v>2</v>
@@ -2368,10 +2193,10 @@
         <v>17</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="W4" s="30" t="s">
         <v>2</v>
@@ -2380,10 +2205,10 @@
         <v>17</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z4" s="29" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="AA4" s="30" t="s">
         <v>2</v>
@@ -2392,7 +2217,7 @@
         <v>17</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AD4" s="32" t="s">
         <v>2</v>
@@ -2404,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="AG4" s="27" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AH4" s="28" t="s">
         <v>6</v>
@@ -2412,7 +2237,7 @@
     </row>
     <row r="5" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>5</v>
@@ -2424,7 +2249,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>27</v>
@@ -2436,10 +2261,10 @@
         <v>25</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="K5" s="30" t="s">
         <v>6</v>
@@ -2448,10 +2273,10 @@
         <v>17</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O5" s="30" t="s">
         <v>6</v>
@@ -2460,10 +2285,10 @@
         <v>17</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="S5" s="30" t="s">
         <v>6</v>
@@ -2472,10 +2297,10 @@
         <v>17</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V5" s="29" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="W5" s="30" t="s">
         <v>6</v>
@@ -2484,10 +2309,10 @@
         <v>17</v>
       </c>
       <c r="Y5" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="AA5" s="30" t="s">
         <v>6</v>
@@ -2496,7 +2321,7 @@
         <v>17</v>
       </c>
       <c r="AC5" s="31" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="AD5" s="31" t="s">
         <v>6</v>
@@ -2506,19 +2331,19 @@
       </c>
       <c r="AF5" s="31"/>
       <c r="AG5" s="27" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AH5" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>28</v>
@@ -2530,10 +2355,10 @@
         <v>16</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="K6" s="30" t="s">
         <v>6</v>
@@ -2542,10 +2367,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="O6" s="30" t="s">
         <v>6</v>
@@ -2566,7 +2391,7 @@
       <c r="AA6" s="30"/>
       <c r="AB6" s="30"/>
       <c r="AC6" s="32" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="AD6" s="32" t="s">
         <v>6</v>
@@ -2576,151 +2401,151 @@
       </c>
       <c r="AF6" s="32"/>
       <c r="AG6" s="27" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AH6" s="28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:34" s="17" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="L7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="P7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="T7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V7" s="29" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="W7" s="30" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="X7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z7" s="33" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="AA7" s="30" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="AB7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="AD7" s="31" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="AE7" s="31" t="s">
         <v>16</v>
       </c>
       <c r="AF7" s="31"/>
       <c r="AG7" s="27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AH7" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="17" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="17" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="L8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="P8" s="30" t="s">
         <v>16</v>
@@ -2738,10 +2563,10 @@
       <c r="AA8" s="30"/>
       <c r="AB8" s="30"/>
       <c r="AC8" s="32" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="AD8" s="32" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="AE8" s="32" t="s">
         <v>16</v>
@@ -2752,7 +2577,7 @@
     </row>
     <row r="9" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>12</v>
@@ -2764,10 +2589,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>13</v>
@@ -2776,22 +2601,22 @@
         <v>16</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L9" s="30" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="O9" s="30" t="s">
         <v>13</v>
@@ -2800,10 +2625,10 @@
         <v>20</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="S9" s="30" t="s">
         <v>13</v>
@@ -2812,10 +2637,10 @@
         <v>21</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V9" s="29" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="W9" s="30" t="s">
         <v>13</v>
@@ -2824,10 +2649,10 @@
         <v>20</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z9" s="29" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="AA9" s="30" t="s">
         <v>13</v>
@@ -2836,7 +2661,7 @@
         <v>20</v>
       </c>
       <c r="AC9" s="31" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AD9" s="31" t="s">
         <v>13</v>
@@ -2846,7 +2671,7 @@
       </c>
       <c r="AF9" s="31"/>
       <c r="AG9" s="27" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AH9" s="28" t="s">
         <v>2</v>
@@ -2854,7 +2679,7 @@
     </row>
     <row r="10" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>14</v>
@@ -2866,10 +2691,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>2</v>
@@ -2878,10 +2703,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="K10" s="30" t="s">
         <v>2</v>
@@ -2890,10 +2715,10 @@
         <v>16</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O10" s="30" t="s">
         <v>2</v>
@@ -2902,10 +2727,10 @@
         <v>16</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="S10" s="30" t="s">
         <v>2</v>
@@ -2914,10 +2739,10 @@
         <v>20</v>
       </c>
       <c r="U10" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V10" s="29" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="W10" s="30" t="s">
         <v>2</v>
@@ -2926,15 +2751,15 @@
         <v>21</v>
       </c>
       <c r="Y10" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z10" s="29" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="AA10" s="30"/>
       <c r="AB10" s="30"/>
       <c r="AC10" s="31" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AD10" s="31" t="s">
         <v>2</v>
@@ -2944,81 +2769,81 @@
       </c>
       <c r="AF10" s="31"/>
       <c r="AG10" s="27" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AH10" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L11" s="30" t="s">
         <v>16</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="P11" s="30" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R11" s="29" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="S11" s="30" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="T11" s="30" t="s">
         <v>20</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V11" s="29" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="W11" s="30" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X11" s="30" t="s">
         <v>21</v>
@@ -3028,17 +2853,17 @@
       <c r="AA11" s="30"/>
       <c r="AB11" s="30"/>
       <c r="AC11" s="31" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="AD11" s="30" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="AE11" s="31" t="s">
         <v>21</v>
       </c>
       <c r="AF11" s="31"/>
       <c r="AG11" s="27" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AH11" s="28" t="s">
         <v>2</v>
@@ -3046,7 +2871,7 @@
     </row>
     <row r="12" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>7</v>
@@ -3058,7 +2883,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>29</v>
@@ -3070,10 +2895,10 @@
         <v>25</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>2</v>
@@ -3082,10 +2907,10 @@
         <v>17</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="O12" s="30" t="s">
         <v>2</v>
@@ -3094,10 +2919,10 @@
         <v>17</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="S12" s="30" t="s">
         <v>2</v>
@@ -3106,10 +2931,10 @@
         <v>19</v>
       </c>
       <c r="U12" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V12" s="29" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="W12" s="30" t="s">
         <v>2</v>
@@ -3118,15 +2943,15 @@
         <v>17</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z12" s="29" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
       <c r="AC12" s="32" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="AD12" s="32" t="s">
         <v>2</v>
@@ -3138,15 +2963,15 @@
         <v>0</v>
       </c>
       <c r="AG12" s="27" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AH12" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>11</v>
@@ -3158,7 +2983,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>11</v>
@@ -3170,10 +2995,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K13" s="30" t="s">
         <v>2</v>
@@ -3182,7 +3007,7 @@
         <v>21</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N13" s="29" t="s">
         <v>11</v>
@@ -3194,7 +3019,7 @@
         <v>21</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>11</v>
@@ -3203,10 +3028,10 @@
         <v>2</v>
       </c>
       <c r="T13" s="30" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V13" s="29" t="s">
         <v>11</v>
@@ -3238,12 +3063,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>2</v>
@@ -3252,10 +3077,10 @@
         <v>21</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>2</v>
@@ -3264,10 +3089,10 @@
         <v>21</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="K14" s="30" t="s">
         <v>2</v>
@@ -3276,10 +3101,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N14" s="29" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="O14" s="30" t="s">
         <v>2</v>
@@ -3288,10 +3113,10 @@
         <v>21</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="S14" s="30" t="s">
         <v>2</v>
@@ -3300,10 +3125,10 @@
         <v>21</v>
       </c>
       <c r="U14" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V14" s="29" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="W14" s="30" t="s">
         <v>2</v>
@@ -3316,7 +3141,7 @@
       <c r="AA14" s="30"/>
       <c r="AB14" s="30"/>
       <c r="AC14" s="29" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="AD14" s="30" t="s">
         <v>2</v>
@@ -3328,9 +3153,9 @@
       <c r="AG14" s="27"/>
       <c r="AH14" s="28"/>
     </row>
-    <row r="15" spans="1:34" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>10</v>
@@ -3342,7 +3167,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>10</v>
@@ -3354,10 +3179,10 @@
         <v>16</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K15" s="30" t="s">
         <v>2</v>
@@ -3366,7 +3191,7 @@
         <v>21</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N15" s="29" t="s">
         <v>10</v>
@@ -3378,7 +3203,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>10</v>
@@ -3390,7 +3215,7 @@
         <v>21</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V15" s="29" t="s">
         <v>10</v>
@@ -3424,7 +3249,7 @@
     </row>
     <row r="16" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>9</v>
@@ -3436,7 +3261,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>9</v>
@@ -3448,10 +3273,10 @@
         <v>16</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>2</v>
@@ -3472,13 +3297,13 @@
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
       <c r="Y16" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z16" s="29" t="s">
         <v>9</v>
       </c>
       <c r="AA16" s="30" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="AB16" s="30" t="s">
         <v>16</v>
@@ -3500,13 +3325,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>30</v>
@@ -3522,7 +3347,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
       <c r="M17" s="23" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="N17" s="29" t="s">
         <v>30</v>
@@ -3562,9 +3387,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>8</v>
@@ -3592,10 +3417,10 @@
       <c r="S18" s="30"/>
       <c r="T18" s="30"/>
       <c r="U18" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V18" s="29" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="W18" s="30" t="s">
         <v>2</v>
@@ -3608,7 +3433,7 @@
       <c r="AA18" s="30"/>
       <c r="AB18" s="30"/>
       <c r="AC18" s="32" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AD18" s="32" t="s">
         <v>2</v>
@@ -3620,13 +3445,13 @@
         <v>0</v>
       </c>
       <c r="AG18" s="27" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AH18" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
@@ -3636,10 +3461,10 @@
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="23" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K19" s="30" t="s">
         <v>13</v>
@@ -3664,7 +3489,7 @@
       <c r="AA19" s="30"/>
       <c r="AB19" s="30"/>
       <c r="AC19" s="31" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AD19" s="31" t="s">
         <v>13</v>
@@ -3674,18 +3499,18 @@
       </c>
       <c r="AF19" s="31"/>
       <c r="AG19" s="27" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AH19" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>13</v>
@@ -3710,7 +3535,7 @@
       <c r="S20" s="30"/>
       <c r="T20" s="30"/>
       <c r="U20" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V20" s="29" t="s">
         <v>15</v>
@@ -3742,13 +3567,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>32</v>
@@ -3796,13 +3621,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>34</v>
@@ -3850,13 +3675,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="E23" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>35</v>
@@ -3904,19 +3729,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>16</v>
@@ -3941,36 +3766,38 @@
       <c r="Z24" s="29"/>
       <c r="AA24" s="30"/>
       <c r="AB24" s="30"/>
-      <c r="AC24" s="32" t="s">
+      <c r="AC24" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AD24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE24" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF24" s="32"/>
+      <c r="AD24" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF24" s="31">
+        <v>0</v>
+      </c>
       <c r="AG24" s="27" t="s">
         <v>38</v>
       </c>
       <c r="AH24" s="28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>39</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>16</v>
@@ -3995,41 +3822,39 @@
       <c r="Z25" s="29"/>
       <c r="AA25" s="30"/>
       <c r="AB25" s="30"/>
-      <c r="AC25" s="31" t="s">
+      <c r="AC25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AD25" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF25" s="31">
-        <v>0</v>
-      </c>
+      <c r="AD25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE25" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF25" s="32"/>
       <c r="AG25" s="27" t="s">
         <v>39</v>
       </c>
       <c r="AH25" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
@@ -4051,39 +3876,41 @@
       <c r="Z26" s="29"/>
       <c r="AA26" s="30"/>
       <c r="AB26" s="30"/>
-      <c r="AC26" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD26" s="32" t="s">
+      <c r="AC26" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD26" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF26" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH26" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AE26" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH26" s="28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
@@ -4105,35 +3932,33 @@
       <c r="Z27" s="29"/>
       <c r="AA27" s="30"/>
       <c r="AB27" s="30"/>
-      <c r="AC27" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD27" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE27" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF27" s="31">
-        <v>0</v>
-      </c>
+      <c r="AC27" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD27" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE27" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF27" s="32"/>
       <c r="AG27" s="27" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="AH27" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>13</v>
@@ -4161,40 +3986,32 @@
       <c r="Z28" s="29"/>
       <c r="AA28" s="30"/>
       <c r="AB28" s="30"/>
-      <c r="AC28" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD28" s="32" t="s">
+      <c r="AC28" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD28" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AE28" s="32" t="s">
+      <c r="AE28" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AF28" s="32"/>
+      <c r="AF28" s="31"/>
       <c r="AG28" s="27" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AH28" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="E29" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="30"/>
@@ -4203,36 +4020,52 @@
       <c r="N29" s="29"/>
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="29"/>
+      <c r="Q29" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="V29" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="W29" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="X29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y29" s="23"/>
       <c r="Z29" s="29"/>
       <c r="AA29" s="30"/>
       <c r="AB29" s="30"/>
-      <c r="AC29" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD29" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE29" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF29" s="31"/>
+      <c r="AC29" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD29" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF29" s="32"/>
       <c r="AG29" s="27" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="AH29" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
@@ -4250,25 +4083,25 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R30" s="29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S30" s="30" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="T30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="U30" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V30" s="29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="W30" s="30" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="X30" s="30" t="s">
         <v>21</v>
@@ -4277,24 +4110,26 @@
       <c r="Z30" s="29"/>
       <c r="AA30" s="30"/>
       <c r="AB30" s="30"/>
-      <c r="AC30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD30" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE30" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF30" s="32"/>
+      <c r="AC30" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD30" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE30" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF30" s="31">
+        <v>0</v>
+      </c>
       <c r="AG30" s="27" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH30" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
@@ -4312,10 +4147,10 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R31" s="29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="S31" s="30" t="s">
         <v>2</v>
@@ -4323,36 +4158,28 @@
       <c r="T31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="U31" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="V31" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="W31" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="X31" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="U31" s="23"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
       <c r="Y31" s="23"/>
       <c r="Z31" s="29"/>
       <c r="AA31" s="30"/>
       <c r="AB31" s="30"/>
-      <c r="AC31" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE31" s="31" t="s">
+      <c r="AC31" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE31" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AF31" s="31">
+      <c r="AF31" s="32">
         <v>0</v>
       </c>
       <c r="AG31" s="27" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AH31" s="28" t="s">
         <v>2</v>
@@ -4376,10 +4203,10 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R32" s="29" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="S32" s="30" t="s">
         <v>2</v>
@@ -4388,32 +4215,46 @@
         <v>21</v>
       </c>
       <c r="U32" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="V32" s="29"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD32" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE32" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="V32" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="W32" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="X32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y32" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z32" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA32" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC32" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD32" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE32" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AF32" s="32">
+      <c r="AF32" s="31">
         <v>0</v>
       </c>
       <c r="AG32" s="27" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AH32" s="28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -4434,61 +4275,55 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R33" s="29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="S33" s="30" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="T33" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U33" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V33" s="29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="W33" s="30" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="X33" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z33" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA33" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC33" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD33" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE33" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF33" s="31">
-        <v>0</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD33" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE33" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF33" s="32"/>
       <c r="AG33" s="27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AH33" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
@@ -4506,55 +4341,51 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R34" s="29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S34" s="30" t="s">
         <v>13</v>
       </c>
       <c r="T34" s="30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U34" s="23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="V34" s="29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W34" s="30" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="X34" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y34" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z34" s="29" t="s">
-        <v>78</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="29"/>
       <c r="AA34" s="30"/>
       <c r="AB34" s="30"/>
-      <c r="AC34" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD34" s="32" t="s">
+      <c r="AC34" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD34" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AE34" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF34" s="32"/>
+      <c r="AE34" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF34" s="31"/>
       <c r="AG34" s="27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH34" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
@@ -4572,51 +4403,43 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R35" s="29" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="S35" s="30" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="T35" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="U35" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="V35" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="W35" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="X35" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="U35" s="23"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
       <c r="Y35" s="23"/>
       <c r="Z35" s="29"/>
       <c r="AA35" s="30"/>
       <c r="AB35" s="30"/>
-      <c r="AC35" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD35" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE35" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF35" s="31"/>
+      <c r="AC35" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD35" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE35" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF35" s="32"/>
       <c r="AG35" s="27" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AH35" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
@@ -4634,10 +4457,10 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="23" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="R36" s="29" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="S36" s="30" t="s">
         <v>33</v>
@@ -4653,24 +4476,24 @@
       <c r="Z36" s="29"/>
       <c r="AA36" s="30"/>
       <c r="AB36" s="30"/>
-      <c r="AC36" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD36" s="32" t="s">
+      <c r="AC36" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD36" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AE36" s="32" t="s">
+      <c r="AE36" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AF36" s="32"/>
+      <c r="AF36" s="31"/>
       <c r="AG36" s="27" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AH36" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
@@ -4687,44 +4510,36 @@
       <c r="N37" s="29"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
-      <c r="Q37" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="R37" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S37" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="T37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U37" s="23"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="29"/>
       <c r="V37" s="29"/>
       <c r="W37" s="30"/>
       <c r="X37" s="30"/>
-      <c r="Y37" s="23"/>
+      <c r="Y37" s="29"/>
       <c r="Z37" s="29"/>
       <c r="AA37" s="30"/>
       <c r="AB37" s="30"/>
-      <c r="AC37" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD37" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF37" s="31"/>
+      <c r="AC37" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD37" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE37" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF37" s="32"/>
       <c r="AG37" s="27" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="AH37" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
@@ -4753,21 +4568,21 @@
       <c r="Z38" s="29"/>
       <c r="AA38" s="30"/>
       <c r="AB38" s="30"/>
-      <c r="AC38" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD38" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE38" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF38" s="32"/>
+      <c r="AC38" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD38" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE38" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF38" s="31"/>
       <c r="AG38" s="27" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="AH38" s="28" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -4783,44 +4598,58 @@
       <c r="J39" s="29"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="29"/>
+      <c r="M39" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="N39" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="O39" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="23"/>
       <c r="R39" s="29"/>
       <c r="S39" s="30"/>
       <c r="T39" s="30"/>
-      <c r="U39" s="29"/>
+      <c r="U39" s="23"/>
       <c r="V39" s="29"/>
       <c r="W39" s="30"/>
       <c r="X39" s="30"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="30"/>
+      <c r="Y39" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z39" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA39" s="30" t="s">
+        <v>2</v>
+      </c>
       <c r="AB39" s="30"/>
-      <c r="AC39" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD39" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE39" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF39" s="31"/>
+      <c r="AC39" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD39" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF39" s="32"/>
       <c r="AG39" s="27" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AH39" s="28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
       <c r="G40" s="30"/>
@@ -4830,13 +4659,13 @@
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
       <c r="M40" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="N40" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="O40" s="30" t="s">
-        <v>2</v>
+        <v>215</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="P40" s="30" t="s">
         <v>21</v>
@@ -4850,37 +4679,35 @@
       <c r="W40" s="30"/>
       <c r="X40" s="30"/>
       <c r="Y40" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z40" s="29" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="AA40" s="30" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="AB40" s="30"/>
-      <c r="AC40" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD40" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="32" t="s">
+      <c r="AC40" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD40" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE40" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AF40" s="32"/>
+      <c r="AF40" s="31"/>
       <c r="AG40" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH40" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="AH40" s="28"/>
+    </row>
+    <row r="41" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
@@ -4889,110 +4716,106 @@
       <c r="J41" s="29"/>
       <c r="K41" s="30"/>
       <c r="L41" s="30"/>
-      <c r="M41" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="N41" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="O41" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="P41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q41" s="23"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="29"/>
       <c r="R41" s="29"/>
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
-      <c r="U41" s="23"/>
+      <c r="U41" s="29"/>
       <c r="V41" s="29"/>
       <c r="W41" s="30"/>
       <c r="X41" s="30"/>
       <c r="Y41" s="23" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Z41" s="29" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="AA41" s="30" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="AB41" s="30"/>
-      <c r="AC41" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD41" s="31" t="s">
+      <c r="AC41" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD41" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="35"/>
+    </row>
+    <row r="42" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z42" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA42" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AE41" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH41" s="28"/>
-    </row>
-    <row r="42" spans="1:34" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="N42" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="O42" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="P42" s="30" t="s">
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD42" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE42" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD42" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE42" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="37"/>
-    </row>
-    <row r="43" spans="1:34" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF42" s="39"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="18"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="E43" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>16</v>
+      </c>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="30"/>
@@ -5001,19 +4824,11 @@
       <c r="N43" s="29"/>
       <c r="O43" s="30"/>
       <c r="P43" s="30"/>
-      <c r="Q43" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="R43" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="S43" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="T43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U43" s="23"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="29"/>
       <c r="V43" s="29"/>
       <c r="W43" s="30"/>
       <c r="X43" s="30"/>
@@ -5021,424 +4836,338 @@
       <c r="Z43" s="29"/>
       <c r="AA43" s="30"/>
       <c r="AB43" s="30"/>
-      <c r="AC43" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD43" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE43" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF43" s="31"/>
+      <c r="AC43" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD43" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE43" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF43" s="36"/>
       <c r="AG43" s="31"/>
-      <c r="AH43" s="39"/>
-    </row>
-    <row r="44" spans="1:34" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="R44" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="S44" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="T44" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U44" s="23"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD44" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE44" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF44" s="32"/>
-      <c r="AG44" s="32"/>
-      <c r="AH44" s="41"/>
-    </row>
-    <row r="45" spans="1:34" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="R45" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="S45" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="T45" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U45" s="23"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD45" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE45" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="39"/>
-    </row>
-    <row r="46" spans="1:34" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="R46" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="S46" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="T46" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U46" s="23"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD46" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE46" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="32"/>
-      <c r="AH46" s="41"/>
-    </row>
-    <row r="47" spans="1:34" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD47" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE47" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="39"/>
-    </row>
-    <row r="48" spans="1:34" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD48" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE48" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF48" s="32"/>
-      <c r="AG48" s="32"/>
-      <c r="AH48" s="41"/>
-    </row>
-    <row r="49" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z49" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA49" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD49" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE49" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF49" s="45"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="39"/>
-    </row>
-    <row r="50" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="47"/>
-      <c r="Y50" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z50" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA50" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB50" s="47"/>
-      <c r="AC50" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD50" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE50" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF50" s="48"/>
-      <c r="AG50" s="48"/>
-      <c r="AH50" s="18"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD51" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE51" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF51" s="45"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="39"/>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH43" s="35"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF46" s="11"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF47" s="11"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="16"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="11"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="16"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="11"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="11"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5449,32 +5178,34 @@
       <c r="H52" s="2"/>
       <c r="I52" s="16"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
       <c r="M52" s="16"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
       <c r="Q52" s="16"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
       <c r="U52" s="16"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
       <c r="Y52" s="16"/>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="AE52" s="2"/>
-      <c r="AF52" s="4"/>
-      <c r="AG52" s="4"/>
-      <c r="AH52" s="4"/>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AF52" s="11"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5485,32 +5216,34 @@
       <c r="H53" s="2"/>
       <c r="I53" s="16"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
       <c r="Q53" s="16"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
       <c r="U53" s="16"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
       <c r="Y53" s="16"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="AE53" s="2"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AF53" s="11"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5536,21 +5269,19 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="16"/>
-      <c r="Z54" s="2"/>
+      <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE54" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AE54" s="2"/>
       <c r="AF54" s="11"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5576,21 +5307,19 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="16"/>
-      <c r="Z55" s="2"/>
+      <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="2" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE55" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AE55" s="2"/>
       <c r="AF55" s="11"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -5616,20 +5345,19 @@
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="16"/>
+      <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="2" t="s">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE56" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" s="11"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -5655,15 +5383,19 @@
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="16"/>
-      <c r="Z57" s="2"/>
+      <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
+      <c r="AC57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="AE57" s="2"/>
       <c r="AF57" s="11"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5689,22 +5421,19 @@
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="16"/>
+      <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="2" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5730,21 +5459,19 @@
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="16"/>
-      <c r="Z59" s="2"/>
+      <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="2" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE59" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AE59" s="2"/>
       <c r="AF59" s="11"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5770,21 +5497,21 @@
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
       <c r="Y60" s="16"/>
-      <c r="Z60" s="2"/>
+      <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="2" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AF60" s="11"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -5814,17 +5541,14 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="2" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF61" s="11"/>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="AE61" s="2"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -5854,17 +5578,19 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="2" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF62" s="11"/>
-    </row>
-    <row r="63" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -5894,17 +5620,14 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="2" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF63" s="11"/>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="AE63" s="2"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -5933,18 +5656,20 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
-      <c r="AC64" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD64" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF64" s="11"/>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC64" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD64" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -5973,18 +5698,15 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
-      <c r="AC65" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD65" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF65" s="11"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC65" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD65" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE65" s="17"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6013,18 +5735,11 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
-      <c r="AC66" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD66" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF66" s="2"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -6053,18 +5768,11 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
-      <c r="AC67" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD67" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF67" s="11"/>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6093,18 +5801,11 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
-      <c r="AC68" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD68" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF68" s="11"/>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -6133,17 +5834,11 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
-      <c r="AC69" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD69" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE69" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -6172,17 +5867,11 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
-      <c r="AC70" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD70" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE70" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6211,17 +5900,11 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
-      <c r="AC71" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD71" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE71" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6250,17 +5933,11 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
-      <c r="AC72" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD72" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE72" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6289,15 +5966,11 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
-      <c r="AC73" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD73" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE73" s="17"/>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="16"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6323,14 +5996,14 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
       <c r="Y74" s="16"/>
-      <c r="Z74" s="5"/>
+      <c r="Z74" s="2"/>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6356,14 +6029,14 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
       <c r="Y75" s="16"/>
-      <c r="Z75" s="5"/>
+      <c r="Z75" s="4"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6389,14 +6062,14 @@
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
       <c r="Y76" s="16"/>
-      <c r="Z76" s="5"/>
+      <c r="Z76" s="4"/>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="16"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6422,14 +6095,13 @@
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
       <c r="Y77" s="16"/>
-      <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6455,14 +6127,13 @@
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
       <c r="Y78" s="16"/>
-      <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="16"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6488,14 +6159,13 @@
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="16"/>
-      <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6521,339 +6191,84 @@
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
       <c r="Y80" s="16"/>
-      <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="16"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
+    <row r="81" spans="11:31" x14ac:dyDescent="0.2">
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="16"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
+    <row r="82" spans="11:31" x14ac:dyDescent="0.2">
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="16"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="16"/>
-      <c r="Z84" s="4"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5"/>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A85" s="16"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="16"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5"/>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="16"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
-      <c r="AD86" s="5"/>
-      <c r="AE86" s="5"/>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="16"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5"/>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A88" s="16"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="16"/>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
-      <c r="AC88" s="5"/>
-      <c r="AD88" s="5"/>
-      <c r="AE88" s="5"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="2"/>
-      <c r="AC89" s="5"/>
-      <c r="AD89" s="5"/>
-      <c r="AE89" s="5"/>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-      <c r="AA90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AC90" s="5"/>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="5"/>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="W91" s="4"/>
-      <c r="X91" s="4"/>
-      <c r="AA91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AC91" s="2"/>
-      <c r="AD91" s="2"/>
-      <c r="AE91" s="2"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-      <c r="AE92" s="4"/>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AC93" s="4"/>
-      <c r="AD93" s="4"/>
-      <c r="AE93" s="4"/>
+    <row r="83" spans="11:31" x14ac:dyDescent="0.2">
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+    </row>
+    <row r="84" spans="11:31" x14ac:dyDescent="0.2">
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="4"/>
+      <c r="AE84" s="4"/>
+    </row>
+    <row r="85" spans="11:31" x14ac:dyDescent="0.2">
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="4"/>
+      <c r="AE85" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF50" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:AF42" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="24">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6878,7 +6293,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>22</v>
@@ -6887,285 +6302,285 @@
         <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>279</v>
+      <c r="A22" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="51" t="s">
-        <v>282</v>
+      <c r="A23" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="41" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -7196,37 +6611,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="G1" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="H1" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="I1" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="J1" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="K1" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
@@ -7234,7 +6649,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -7246,10 +6661,10 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -7258,10 +6673,10 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J2" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
@@ -7272,7 +6687,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -7284,7 +6699,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -7296,7 +6711,7 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
@@ -7310,10 +6725,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -7322,10 +6737,10 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
@@ -7334,10 +6749,10 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -7348,10 +6763,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -7360,10 +6775,10 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -7372,10 +6787,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J5" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
@@ -7386,37 +6801,37 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="G6" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J6" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="K6" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
@@ -7424,10 +6839,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -7436,10 +6851,10 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -7448,10 +6863,10 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J7" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
@@ -7462,37 +6877,37 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="G8" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J8" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="K8" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="L8" t="s">
         <v>20</v>
@@ -7500,10 +6915,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -7512,10 +6927,10 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
@@ -7524,10 +6939,10 @@
         <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J9" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="K9" t="s">
         <v>2</v>
@@ -7538,7 +6953,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -7550,7 +6965,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -7562,7 +6977,7 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
@@ -7576,10 +6991,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -7588,10 +7003,10 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
@@ -7600,10 +7015,10 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J11" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
@@ -7614,10 +7029,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -7626,30 +7041,30 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="G12" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="I12" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J12" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="K12" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -7658,10 +7073,10 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="G13" t="s">
         <v>2</v>
@@ -7670,10 +7085,10 @@
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J13" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="K13" t="s">
         <v>2</v>
@@ -7684,10 +7099,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -7696,10 +7111,10 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
@@ -7708,10 +7123,10 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J14" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="K14" t="s">
         <v>2</v>
@@ -7722,10 +7137,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -7734,30 +7149,30 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F15" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="G15" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J15" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="K15" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -7766,10 +7181,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F16" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
@@ -7778,10 +7193,10 @@
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J16" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="K16" t="s">
         <v>2</v>
@@ -7792,10 +7207,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -7804,30 +7219,30 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F17" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="G17" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="I17" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J17" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="K17" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -7836,10 +7251,10 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
@@ -7848,10 +7263,10 @@
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J18" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="K18" t="s">
         <v>2</v>
@@ -7862,7 +7277,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -7874,10 +7289,10 @@
         <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="J19" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="K19" t="s">
         <v>2</v>
@@ -7888,10 +7303,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
@@ -7900,7 +7315,7 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
